--- a/notebooks/TJP2/input/TJP2_PFIC4_individuals.xlsx
+++ b/notebooks/TJP2/input/TJP2_PFIC4_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TJP2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E02B94-465C-784F-B22D-162DF3531BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772F7414-4AE4-2843-B8E9-170FCCC36AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7480" yWindow="6620" windowWidth="28660" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,9 +603,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -902,6 +902,7 @@
         <v>67</v>
       </c>
     </row>
+    <row r="6" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
